--- a/Documents/Database/DatabaseTables.xlsx
+++ b/Documents/Database/DatabaseTables.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregw\Dropbox\Project Assignment OLL Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregw\source\repos\OLLLibrarySystem\Documents\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4740B854-F311-447C-B88A-1220AEEE6B75}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{EB657813-76F0-4FB0-96CD-6C8B36318B17}"/>
   </bookViews>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
-  <si>
-    <t>Books Table</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>Media Table</t>
   </si>
@@ -35,9 +33,6 @@
     <t>Users Table</t>
   </si>
   <si>
-    <t>Locations Table</t>
-  </si>
-  <si>
     <t>Lexile Score Table</t>
   </si>
   <si>
@@ -68,24 +63,15 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Replacement Cost</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Photo</t>
   </si>
   <si>
-    <t>Checked Out/In</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Location Desc</t>
-  </si>
-  <si>
     <t>Lowest is 300</t>
   </si>
   <si>
@@ -95,12 +81,6 @@
     <t>increments of 10</t>
   </si>
   <si>
-    <t>Lexile</t>
-  </si>
-  <si>
-    <t>ISBN #</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -110,9 +90,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>FK1</t>
   </si>
   <si>
@@ -137,33 +114,15 @@
     <t>LocationID</t>
   </si>
   <si>
-    <t>Location Admin</t>
-  </si>
-  <si>
-    <t>Lexile Upper</t>
-  </si>
-  <si>
-    <t>Lexile Lower</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>LexileID</t>
   </si>
   <si>
-    <t>CheckOutID</t>
-  </si>
-  <si>
     <t>BookID</t>
   </si>
   <si>
     <t>Subject Table</t>
   </si>
   <si>
-    <t>Subject Description</t>
-  </si>
-  <si>
     <t>SubjectID</t>
   </si>
   <si>
@@ -173,18 +132,9 @@
     <t>AgeID</t>
   </si>
   <si>
-    <t>Rec Age</t>
-  </si>
-  <si>
     <t>Access Table</t>
   </si>
   <si>
-    <t>UserTypeID</t>
-  </si>
-  <si>
-    <t>Access Level</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -219,6 +169,57 @@
   </si>
   <si>
     <t>nchar(3)</t>
+  </si>
+  <si>
+    <t>Book Table</t>
+  </si>
+  <si>
+    <t>LexileUpper</t>
+  </si>
+  <si>
+    <t>LexileLower</t>
+  </si>
+  <si>
+    <t>CheckedOutInID</t>
+  </si>
+  <si>
+    <t>RecAge</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>ReplacementCost</t>
+  </si>
+  <si>
+    <t>LexileScore</t>
+  </si>
+  <si>
+    <t>AccessID</t>
+  </si>
+  <si>
+    <t>AccessLevel</t>
+  </si>
+  <si>
+    <t>Location Table</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>AgeYears</t>
+  </si>
+  <si>
+    <t>CheckOutInID</t>
+  </si>
+  <si>
+    <t>Checked OutIn</t>
+  </si>
+  <si>
+    <t>runningtime</t>
+  </si>
+  <si>
+    <t>genre</t>
   </si>
 </sst>
 </file>
@@ -242,13 +243,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -407,40 +420,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF77879-5F53-4FF7-8FF3-097AE319A345}">
-  <dimension ref="B2:T17"/>
+  <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
@@ -774,11 +800,11 @@
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
     <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" customWidth="1"/>
     <col min="14" max="14" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
     <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" customWidth="1"/>
@@ -786,453 +812,471 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="13"/>
+      <c r="N2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="11"/>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="13"/>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="20"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="13"/>
+      <c r="N15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="P17" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="11"/>
-      <c r="O9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="20"/>
-      <c r="J15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="11"/>
-      <c r="N15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="R2:T2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Database/DatabaseTables.xlsx
+++ b/Documents/Database/DatabaseTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregw\source\repos\OLLLibrarySystem\Documents\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4740B854-F311-447C-B88A-1220AEEE6B75}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EDECE6-C435-4EC8-8EAE-DE76459B645E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{EB657813-76F0-4FB0-96CD-6C8B36318B17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" xr2:uid="{EB657813-76F0-4FB0-96CD-6C8B36318B17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,33 +424,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,13 +461,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,208 +812,208 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="13"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="13"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="R2" s="3" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="R2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="5"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="L3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="11" t="s">
+      <c r="P3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12" t="s">
+      <c r="P4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15" t="s">
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="21" t="s">
         <v>45</v>
       </c>
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15" t="s">
+      <c r="H6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O7" t="s">
@@ -1021,20 +1021,20 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="19" t="s">
+      <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="O8" t="s">
@@ -1042,241 +1042,241 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="28"/>
       <c r="O9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="13"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="11" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="28"/>
+      <c r="N15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12" t="s">
+      <c r="L16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="6:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="L17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
